--- a/biology/Zoologie/Haplochromis/Haplochromis.xlsx
+++ b/biology/Zoologie/Haplochromis/Haplochromis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Haplochromis est un genre regroupant de nombreuses espèces de poissons de la famille des cichlidés. Bon nombre de ces espèces sont endémiques du Lac Victoria, en Afrique orientale[1]. L'introduction de la Perche du Nil en 1954 dans le Lac Victoria a conduit environ 200 espèces d'Haplochromis à l'extinction et de nombreuses autres sont actuellement menacées ou en danger critique d'extinction[2]. Certaines espèces du lac Tanganika et du lac Malawi, autrefois placées dans ce genre, ont été déplacées dans d'autres genres de cichlidés comme Astatotilapia, Pseudocrenilabrus ou Pundamilia[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haplochromis est un genre regroupant de nombreuses espèces de poissons de la famille des cichlidés. Bon nombre de ces espèces sont endémiques du Lac Victoria, en Afrique orientale. L'introduction de la Perche du Nil en 1954 dans le Lac Victoria a conduit environ 200 espèces d'Haplochromis à l'extinction et de nombreuses autres sont actuellement menacées ou en danger critique d'extinction. Certaines espèces du lac Tanganika et du lac Malawi, autrefois placées dans ce genre, ont été déplacées dans d'autres genres de cichlidés comme Astatotilapia, Pseudocrenilabrus ou Pundamilia.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon FishBase                                           (31 janvier 2017)[3] il y a 230 espèces référencées :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon FishBase                                           (31 janvier 2017) il y a 230 espèces référencées :
 Haplochromis acidens Greenwood, 1967
 Haplochromis adolphifrederici (Boulenger, 1914)
 Haplochromis aelocephalus Greenwood, 1959
